--- a/Sprider  爪巴/douban.xlsx
+++ b/Sprider  爪巴/douban.xlsx
@@ -1,62 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Desktop\py文件\Sprider  爪巴\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F751A9-A0B9-4476-81BE-DB25C43C4D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TOP250" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TOP250" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>电影名</t>
-  </si>
-  <si>
-    <t>导演</t>
-  </si>
-  <si>
-    <t>评分</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -74,23 +54,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -356,172 +396,1930 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="1" customWidth="1"/>
+    <col width="28.6640625" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="8.44140625" customWidth="1" style="2" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>电影名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>导演</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>评分</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>肖申克的救赎</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>弗兰克·德拉邦特</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>霸王别姬</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>陈凯歌</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>阿甘正传</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>罗伯特·泽米吉斯</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>这个杀手不太冷</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>吕克·贝松</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>泰坦尼克号</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>詹姆斯·卡梅隆</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>美丽人生</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>罗伯托·贝尼尼</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>千与千寻</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>宫崎骏</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>辛德勒的名单</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>史蒂文·斯皮尔伯格</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>盗梦空间</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>克里斯托弗·诺兰</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>忠犬八公的故事</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>拉斯·霍尔斯道姆</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>星际穿越</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>克里斯托弗·诺兰</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>海上钢琴师</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>朱塞佩·托纳多雷</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>楚门的世界</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>彼得·威尔</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>三傻大闹宝莱坞</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>拉吉库马尔·希拉尼</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>机器人总动员</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>安德鲁·斯坦顿</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>放牛班的春天</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>克里斯托夫·巴拉蒂</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>大话西游之大圣娶亲</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>刘镇伟</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>熔炉</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>黄东赫</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>疯狂动物城</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>拜伦·霍华德</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>无间道</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>刘伟强</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>教父</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>弗朗西斯·福特·科波拉</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>龙猫</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>宫崎骏</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>当幸福来敲门</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>加布里埃莱·穆奇诺</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>怦然心动</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>罗伯·莱纳</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>触不可及</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>奥利维埃·纳卡什</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>控方证人</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>比利·怀德</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>活着</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>克里斯托弗·诺兰</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>末代皇帝</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>张艺谋</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>寻梦环游记</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>贝纳尔多·贝托鲁奇</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>乱世佳人</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>李·昂克里奇</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>何以为家</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>维克多·弗莱明</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>飞屋环游记</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>娜丁·拉巴基</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>少年派的奇幻漂流</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>彼得·杰克逊</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>素媛</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>涅提·蒂瓦里</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>十二怒汉</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>彼特·道格特</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>哈尔的移动城堡</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>李安</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>鬼子来了</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>克里斯·哥伦布</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>天空之城</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>李濬益</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>大话西游之月光宝盒</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>西德尼·吕美特</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>我不是药神</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>宫崎骏</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>闻香识女人</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>姜文</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>罗马假日</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>宫崎骏</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>天堂电影院</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>刘镇伟</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>辩护人</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>文牧野</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>搏击俱乐部</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>马丁·布莱斯特</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>猫鼠游戏</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>威廉·惠勒</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>大闹天宫</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>万籁鸣</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>狮子王</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>弗朗西斯·福特·科波拉</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>死亡诗社</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>罗杰·阿勒斯</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>钢琴家</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>彼得·杰克逊</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>黑客帝国</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>彼得·威尔</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>窃听风暴</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>罗曼·波兰斯基</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>饮食男女</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>莉莉·沃卓斯基</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>美丽心灵</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>彼得·杰克逊</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>两杆大烟枪</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>弗洛里安·亨克尔·冯·多纳斯马尔克</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>让子弹飞</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>李安</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>绿皮书</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>朗·霍华德</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>飞越疯人院</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>盖·里奇</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>看不见的客人</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>姜文</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>海蒂和爷爷</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>彼得·法雷里</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>西西里的美丽传说</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>大卫·芬奇</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>拯救大兵瑞恩</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>米洛斯·福尔曼</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>小鞋子</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>奥里奥尔·保罗</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>穿条纹睡衣的男孩</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>阿兰·葛斯彭纳</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>情书</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>朱塞佩·托纳多雷</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>音乐之声</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>史蒂文·斯皮尔伯格</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>海豚湾</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>马基德·马基迪</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>美国往事</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>赛尔乔·莱昂内</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>致命魔术</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>克里斯托弗·诺兰</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>沉默的羔羊</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>乔纳森·戴米</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>低俗小说</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>昆汀·塔伦蒂诺</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>禁闭岛</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>马丁·斯科塞斯</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>蝴蝶效应</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>埃里克·布雷斯</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>七宗罪</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>大卫·芬奇</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>心灵捕手</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>格斯·范·桑特</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>布达佩斯大饭店</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>韦斯·安德森</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>春光乍泄</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>王家卫</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>被嫌弃的松子的一生</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>中岛哲也</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>摩登时代</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>查理·卓别林</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>阿凡达</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>詹姆斯·卡梅隆</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>喜剧之王</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>大卫·叶茨</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>剪刀手爱德华</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>周星驰</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>勇敢的心</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>蒂姆·波顿</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>加勒比海盗</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>詹姆斯·曼高德</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>杀人回忆</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>梅尔·吉布森</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>狩猎</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>戈尔·维宾斯基</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>天使爱美丽</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>奉俊昊</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>请以你的名字呼唤我</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>托马斯·温特伯格</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>断背山</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>让-皮埃尔·热内</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>红辣椒</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>今敏</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>幽灵公主</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>宫崎骏</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>阳光灿烂的日子</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>森淳一</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>第六感</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>姜文</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>重庆森林</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>M·奈特·沙马兰</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>入殓师</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>王家卫</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>唐伯虎点秋香</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>泷田洋二郎</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>爱在黎明破晓前</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>森淳一</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>消失的爱人</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>李力持</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>一一</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>理查德·林克莱特</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>菊次郎的夏天</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>大卫·芬奇</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>超脱</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>杨德昌</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>侧耳倾听</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>北野武</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>倩女幽魂</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>托尼·凯耶</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>无人知晓</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>克里斯托弗·诺兰</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>超能陆战队</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>近藤喜文</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>甜蜜蜜</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>程小东</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>萤火之森</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>是枝裕和</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>功夫</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>唐·霍尔</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>玛丽和马克思</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>陈可辛</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>借东西的小人阿莉埃蒂</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>大森贵弘</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>人生果实</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>周星驰</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>